--- a/circuits/comm_feeder.xlsx
+++ b/circuits/comm_feeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE9B8AD-BE91-4C32-9FD5-75D2D4A62D7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CA0803-5759-48E9-A499-84994AE96019}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dtypes" sheetId="1" r:id="rId1"/>
@@ -10014,7 +10014,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A2:F3"/>
+      <selection activeCell="A21" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10805,8 +10805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -11219,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -11266,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -11313,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -11360,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -11501,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -11642,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -11689,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -11868,7 +11868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/circuits/comm_feeder.xlsx
+++ b/circuits/comm_feeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CA0803-5759-48E9-A499-84994AE96019}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E80F990-6779-4617-94E9-19925E32895C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dtypes" sheetId="1" r:id="rId1"/>
@@ -10806,7 +10806,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K20"/>
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -11219,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -11266,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -11313,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -11360,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -11501,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -11642,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -11689,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L20">
         <v>1</v>
